--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb3-Ephb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,7 +94,7 @@
     <t>Ephb3</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.967190844127466</v>
+        <v>0.08736233333333333</v>
       </c>
       <c r="H2">
-        <v>0.967190844127466</v>
+        <v>0.262087</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05767651158852535</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.07409173752753136</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>15.2673007105096</v>
+        <v>0.04936133333333333</v>
       </c>
       <c r="N2">
-        <v>15.2673007105096</v>
+        <v>0.148084</v>
       </c>
       <c r="O2">
-        <v>0.8079660570778144</v>
+        <v>0.002475496704993591</v>
       </c>
       <c r="P2">
-        <v>0.8079660570778144</v>
+        <v>0.002635547730441438</v>
       </c>
       <c r="Q2">
-        <v>14.76639346174564</v>
+        <v>0.004312321256444445</v>
       </c>
       <c r="R2">
-        <v>14.76639346174564</v>
+        <v>0.038810891308</v>
       </c>
       <c r="S2">
-        <v>0.8079660570778144</v>
+        <v>0.0001427780143929192</v>
       </c>
       <c r="T2">
-        <v>0.8079660570778144</v>
+        <v>0.000195272310685148</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,61 +587,929 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H3">
+        <v>0.262087</v>
+      </c>
+      <c r="I3">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J3">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>16.251742</v>
+      </c>
+      <c r="N3">
+        <v>48.75522599999999</v>
+      </c>
+      <c r="O3">
+        <v>0.8150333683194528</v>
+      </c>
+      <c r="P3">
+        <v>0.8677286218055926</v>
+      </c>
+      <c r="Q3">
+        <v>1.419790101851333</v>
+      </c>
+      <c r="R3">
+        <v>12.778110916662</v>
+      </c>
+      <c r="S3">
+        <v>0.04700828151291177</v>
+      </c>
+      <c r="T3">
+        <v>0.06429152129194649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H4">
+        <v>0.262087</v>
+      </c>
+      <c r="I4">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J4">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.006136</v>
+      </c>
+      <c r="N4">
+        <v>0.018408</v>
+      </c>
+      <c r="O4">
+        <v>0.0003077236119062291</v>
+      </c>
+      <c r="P4">
+        <v>0.0003276192068148213</v>
+      </c>
+      <c r="Q4">
+        <v>0.0005360552773333333</v>
+      </c>
+      <c r="R4">
+        <v>0.004824497496</v>
+      </c>
+      <c r="S4">
+        <v>1.77484244681725E-05</v>
+      </c>
+      <c r="T4">
+        <v>2.427387628030175E-05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.08736233333333333</v>
+      </c>
+      <c r="H5">
+        <v>0.262087</v>
+      </c>
+      <c r="I5">
+        <v>0.05767651158852535</v>
+      </c>
+      <c r="J5">
+        <v>0.07409173752753136</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>3.632732</v>
+      </c>
+      <c r="N5">
+        <v>7.265464</v>
+      </c>
+      <c r="O5">
+        <v>0.1821834113636472</v>
+      </c>
+      <c r="P5">
+        <v>0.1293082112571511</v>
+      </c>
+      <c r="Q5">
+        <v>0.3173639438946667</v>
+      </c>
+      <c r="R5">
+        <v>1.904183663368</v>
+      </c>
+      <c r="S5">
+        <v>0.01050770363675248</v>
+      </c>
+      <c r="T5">
+        <v>0.009580670048619417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.052732</v>
+      </c>
+      <c r="I6">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J6">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.04936133333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.148084</v>
+      </c>
+      <c r="O6">
+        <v>0.002475496704993591</v>
+      </c>
+      <c r="P6">
+        <v>0.002635547730441438</v>
+      </c>
+      <c r="Q6">
+        <v>0.01732141838755556</v>
+      </c>
+      <c r="R6">
+        <v>0.155892765488</v>
+      </c>
+      <c r="S6">
+        <v>0.0005735003439616868</v>
+      </c>
+      <c r="T6">
+        <v>0.0007843556153956404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.052732</v>
+      </c>
+      <c r="I7">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J7">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>16.251742</v>
+      </c>
+      <c r="N7">
+        <v>48.75522599999999</v>
+      </c>
+      <c r="O7">
+        <v>0.8150333683194528</v>
+      </c>
+      <c r="P7">
+        <v>0.8677286218055926</v>
+      </c>
+      <c r="Q7">
+        <v>5.702909619714665</v>
+      </c>
+      <c r="R7">
+        <v>51.32618657743199</v>
+      </c>
+      <c r="S7">
+        <v>0.1888194462665093</v>
+      </c>
+      <c r="T7">
+        <v>0.2582415068000832</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H8">
+        <v>1.052732</v>
+      </c>
+      <c r="I8">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J8">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.006136</v>
+      </c>
+      <c r="N8">
+        <v>0.018408</v>
+      </c>
+      <c r="O8">
+        <v>0.0003077236119062291</v>
+      </c>
+      <c r="P8">
+        <v>0.0003276192068148213</v>
+      </c>
+      <c r="Q8">
+        <v>0.002153187850666666</v>
+      </c>
+      <c r="R8">
+        <v>0.019378690656</v>
+      </c>
+      <c r="S8">
+        <v>7.129058055999791E-05</v>
+      </c>
+      <c r="T8">
+        <v>9.750154080253741E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3509106666666666</v>
+      </c>
+      <c r="H9">
+        <v>1.052732</v>
+      </c>
+      <c r="I9">
+        <v>0.2316708169333521</v>
+      </c>
+      <c r="J9">
+        <v>0.2976063026049867</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.632732</v>
+      </c>
+      <c r="N9">
+        <v>7.265464</v>
+      </c>
+      <c r="O9">
+        <v>0.1821834113636472</v>
+      </c>
+      <c r="P9">
+        <v>0.1293082112571511</v>
+      </c>
+      <c r="Q9">
+        <v>1.274764407941333</v>
+      </c>
+      <c r="R9">
+        <v>7.648586447647999</v>
+      </c>
+      <c r="S9">
+        <v>0.04220657974232111</v>
+      </c>
+      <c r="T9">
+        <v>0.03848293864870526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0.967190844127466</v>
-      </c>
-      <c r="H3">
-        <v>0.967190844127466</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>3.62866722869706</v>
-      </c>
-      <c r="N3">
-        <v>3.62866722869706</v>
-      </c>
-      <c r="O3">
-        <v>0.1920339429221856</v>
-      </c>
-      <c r="P3">
-        <v>0.1920339429221856</v>
-      </c>
-      <c r="Q3">
-        <v>3.509613719981183</v>
-      </c>
-      <c r="R3">
-        <v>3.509613719981183</v>
-      </c>
-      <c r="S3">
-        <v>0.1920339429221856</v>
-      </c>
-      <c r="T3">
-        <v>0.1920339429221856</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.209003</v>
+      </c>
+      <c r="I10">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J10">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.04936133333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.148084</v>
+      </c>
+      <c r="O10">
+        <v>0.002475496704993591</v>
+      </c>
+      <c r="P10">
+        <v>0.002635547730441438</v>
+      </c>
+      <c r="Q10">
+        <v>0.003438888916888889</v>
+      </c>
+      <c r="R10">
+        <v>0.030950000252</v>
+      </c>
+      <c r="S10">
+        <v>0.0001138592655956354</v>
+      </c>
+      <c r="T10">
+        <v>0.0001557211870490638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.209003</v>
+      </c>
+      <c r="I11">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J11">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>16.251742</v>
+      </c>
+      <c r="N11">
+        <v>48.75522599999999</v>
+      </c>
+      <c r="O11">
+        <v>0.8150333683194528</v>
+      </c>
+      <c r="P11">
+        <v>0.8677286218055926</v>
+      </c>
+      <c r="Q11">
+        <v>1.132220944408666</v>
+      </c>
+      <c r="R11">
+        <v>10.189988499678</v>
+      </c>
+      <c r="S11">
+        <v>0.03748706292583417</v>
+      </c>
+      <c r="T11">
+        <v>0.05126969603444921</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.209003</v>
+      </c>
+      <c r="I12">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J12">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.006136</v>
+      </c>
+      <c r="N12">
+        <v>0.018408</v>
+      </c>
+      <c r="O12">
+        <v>0.0003077236119062291</v>
+      </c>
+      <c r="P12">
+        <v>0.0003276192068148213</v>
+      </c>
+      <c r="Q12">
+        <v>0.0004274808026666667</v>
+      </c>
+      <c r="R12">
+        <v>0.003847327224</v>
+      </c>
+      <c r="S12">
+        <v>1.415359769512207E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.935736211338947E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.06966766666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.209003</v>
+      </c>
+      <c r="I13">
+        <v>0.0459945130873968</v>
+      </c>
+      <c r="J13">
+        <v>0.05908494285663399</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.632732</v>
+      </c>
+      <c r="N13">
+        <v>7.265464</v>
+      </c>
+      <c r="O13">
+        <v>0.1821834113636472</v>
+      </c>
+      <c r="P13">
+        <v>0.1293082112571511</v>
+      </c>
+      <c r="Q13">
+        <v>0.2530839620653333</v>
+      </c>
+      <c r="R13">
+        <v>1.518503772392</v>
+      </c>
+      <c r="S13">
+        <v>0.008379437298271867</v>
+      </c>
+      <c r="T13">
+        <v>0.007640168273022331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.0067545</v>
+      </c>
+      <c r="H14">
+        <v>2.013509</v>
+      </c>
+      <c r="I14">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J14">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.04936133333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.148084</v>
+      </c>
+      <c r="O14">
+        <v>0.002475496704993591</v>
+      </c>
+      <c r="P14">
+        <v>0.002635547730441438</v>
+      </c>
+      <c r="Q14">
+        <v>0.04969474445933333</v>
+      </c>
+      <c r="R14">
+        <v>0.298168466756</v>
+      </c>
+      <c r="S14">
+        <v>0.00164535908104335</v>
+      </c>
+      <c r="T14">
+        <v>0.001500198617311586</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.0067545</v>
+      </c>
+      <c r="H15">
+        <v>2.013509</v>
+      </c>
+      <c r="I15">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J15">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.251742</v>
+      </c>
+      <c r="N15">
+        <v>48.75522599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.8150333683194528</v>
+      </c>
+      <c r="P15">
+        <v>0.8677286218055926</v>
+      </c>
+      <c r="Q15">
+        <v>16.361514391339</v>
+      </c>
+      <c r="R15">
+        <v>98.16908634803399</v>
+      </c>
+      <c r="S15">
+        <v>0.5417185776141976</v>
+      </c>
+      <c r="T15">
+        <v>0.4939258976791138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.0067545</v>
+      </c>
+      <c r="H16">
+        <v>2.013509</v>
+      </c>
+      <c r="I16">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J16">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.006136</v>
+      </c>
+      <c r="N16">
+        <v>0.018408</v>
+      </c>
+      <c r="O16">
+        <v>0.0003077236119062291</v>
+      </c>
+      <c r="P16">
+        <v>0.0003276192068148213</v>
+      </c>
+      <c r="Q16">
+        <v>0.006177445612</v>
+      </c>
+      <c r="R16">
+        <v>0.037064673672</v>
+      </c>
+      <c r="S16">
+        <v>0.0002045310091829366</v>
+      </c>
+      <c r="T16">
+        <v>0.0001864864276185927</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.0067545</v>
+      </c>
+      <c r="H17">
+        <v>2.013509</v>
+      </c>
+      <c r="I17">
+        <v>0.6646581583907257</v>
+      </c>
+      <c r="J17">
+        <v>0.569217017010848</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.632732</v>
+      </c>
+      <c r="N17">
+        <v>7.265464</v>
+      </c>
+      <c r="O17">
+        <v>0.1821834113636472</v>
+      </c>
+      <c r="P17">
+        <v>0.1293082112571511</v>
+      </c>
+      <c r="Q17">
+        <v>3.657269288294</v>
+      </c>
+      <c r="R17">
+        <v>14.629077153176</v>
+      </c>
+      <c r="S17">
+        <v>0.1210896906863018</v>
+      </c>
+      <c r="T17">
+        <v>0.07360443428680413</v>
       </c>
     </row>
   </sheetData>
